--- a/report_layout_plan.xlsx
+++ b/report_layout_plan.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\timothy.amison\Documents\personal\portfolio\imdb\imdb-report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\timot\OneDrive - University of Birmingham\Documents\Power BI\imdb\imdb-report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{763E5539-F5FC-4DAA-A077-A14F6AF7C85E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11D5FA19-11C0-4D39-B37F-84180ACE0457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
     <sheet name="1. Data Highlights" sheetId="2" r:id="rId2"/>
-    <sheet name="2. Discover Titles" sheetId="3" r:id="rId3"/>
-    <sheet name="3. People &amp; Networks" sheetId="4" r:id="rId4"/>
-    <sheet name="4. Series &amp; Episode Dynamics" sheetId="5" r:id="rId5"/>
-    <sheet name="5. Global &amp; Local Appeal" sheetId="7" r:id="rId6"/>
-    <sheet name="6. About" sheetId="6" r:id="rId7"/>
+    <sheet name="Removed Insights" sheetId="8" r:id="rId3"/>
+    <sheet name="2. Discover Titles" sheetId="3" r:id="rId4"/>
+    <sheet name="3. People &amp; Networks" sheetId="4" r:id="rId5"/>
+    <sheet name="4. Series &amp; Episode Dynamics" sheetId="5" r:id="rId6"/>
+    <sheet name="5. Global &amp; Local Appeal" sheetId="7" r:id="rId7"/>
+    <sheet name="6. About" sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="209">
   <si>
     <t>Page</t>
   </si>
@@ -383,12 +384,460 @@
   <si>
     <t>Grouping for “Other” in genre bar chart</t>
   </si>
+  <si>
+    <t>RETURN</t>
+  </si>
+  <si>
+    <t>RatingIncrease =</t>
+  </si>
+  <si>
+    <t>VAR SeriesSeasonRatings =</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ADDCOLUMNS (</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        SUMMARIZE (</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            Episodes,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            Episodes[parentTconst],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            Episodes[seasonNumber]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "SeasonAvgRating",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        CALCULATE (</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            AVERAGE ( Ratings[averageRating] ),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            FILTER (</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                ALL ( Titles[tconst], Episodes[tconst] ),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                Episodes[parentTconst] = EARLIER ( Episodes[parentTconst] ) &amp;&amp;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                Episodes[seasonNumber] = EARLIER ( Episodes[seasonNumber] )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    )</t>
+  </si>
+  <si>
+    <t>VAR SeriesRatingIncreases =</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        SUMMARIZE ( Titles, Titles[tconst] ),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "SeriesType", Titles[titleType],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "FirstSeasonRating",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            MAXX (</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                FILTER (</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    SeriesSeasonRatings,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    SeriesSeasonRatings[parentTconst] = Titles[tconst] &amp;&amp;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    SeriesSeasonRatings[seasonNumber] = CALCULATE ( MIN ( Episodes[seasonNumber] ), ALL ( Episodes ) )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                ),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                [SeasonAvgRating]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "LastSeasonRating",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    SeriesSeasonRatings[seasonNumber] = CALCULATE ( MAX ( Episodes[seasonNumber] ), ALL ( Episodes ) )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    MAXX (</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        FILTER (</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            SeriesRatingIncreases,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            [SeriesType] = "tvSeries" &amp;&amp;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            NOT ISBLANK ( [FirstSeasonRating] ) &amp;&amp;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            NOT ISBLANK ( [LastSeasonRating] )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        [LastSeasonRating] - [FirstSeasonRating] // The actual increase</t>
+  </si>
+  <si>
+    <t>MostImprovedSeries =</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                ALL ( Titles[tconst], Episodes[tconst] ), // All episode tconsts to get their ratings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        SUMMARIZE ( Titles, Titles[tconst], Titles[primaryTitle] ), // Iterate series</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    SeriesSeasonRatings[seasonNumber] = CALCULATE ( MIN ( Episodes[seasonNumber] ), ALL ( Episodes ) ) // Min season of this series</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    SeriesSeasonRatings[seasonNumber] = CALCULATE ( MAX ( Episodes[seasonNumber] ), ALL ( Episodes ) ) // Max season of this series</t>
+  </si>
+  <si>
+    <t>VAR MaxRatingIncrease =</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        [LastSeasonRating] - [FirstSeasonRating] // Calculate the increase</t>
+  </si>
+  <si>
+    <t>VAR MostImproved =</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    FILTER (</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        SeriesRatingIncreases,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        [SeriesType] = "tvSeries" &amp;&amp;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ( [LastSeasonRating] - [FirstSeasonRating] ) = MaxRatingIncrease &amp;&amp;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        MaxRatingIncrease &gt; 0 // Ensure it's an actual increase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    TOPN (</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        RELATED ( Ratings[averageRating] ), DESC,</t>
+  </si>
+  <si>
+    <t>TopEpisodeSeries =</t>
+  </si>
+  <si>
+    <t>VAR TopRatedEpisodeTconst =</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        TOPN (</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                Titles[titleType] = "tvEpisode" &amp;&amp; NOT ISBLANK ( RELATED ( Ratings[averageRating] ) )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            ),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            RELATED ( Ratings[averageRating] ), DESC,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            Titles[tconst], ASC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Titles[tconst]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LOOKUPVALUE (</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Titles[primaryTitle],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                ALLSELECTED ( Titles ), // Consider titles in current filter context</t>
+  </si>
+  <si>
+    <t>VAR ParentTconst =</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    CALCULATE(</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        MAXX(Episodes, Episodes[parentTconst]),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        FILTER(</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            ALL(Episodes),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            Episodes[tconst] = TopRatedEpisodeTconst</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Titles[tconst], ParentTconst</t>
+  </si>
+  <si>
+    <t>TopEpisodeRating =</t>
+  </si>
+  <si>
+    <t>MAXX (</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            ALLSELECTED ( Titles ),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            Titles[titleType] = "tvEpisode" &amp;&amp; NOT ISBLANK ( RELATED ( Ratings[averageRating] ) )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Titles[tconst], ASC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    RELATED ( Ratings[averageRating] )</t>
+  </si>
+  <si>
+    <t>)</t>
+  </si>
+  <si>
+    <t>TopNonEnglishLanguage =</t>
+  </si>
+  <si>
+    <t>VAR LanguageTitleCounts =</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            Akas,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            Akas[language]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "TitleCount",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            DISTINCTCOUNT ( Akas[titleId] ),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                ALL ( Akas ),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                Akas[language] = EARLIER ( Akas[language] )</t>
+  </si>
+  <si>
+    <t>VAR NonEnglishLanguages =</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    FILTER ( LanguageTitleCounts, Akas[language] &lt;&gt; "en" &amp;&amp; NOT ISBLANK(Akas[language]) )</t>
+  </si>
+  <si>
+    <t>VAR MaxTitleCount =</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    MAXX ( NonEnglishLanguages, [TitleCount] )</t>
+  </si>
+  <si>
+    <t>VAR TopLanguage =</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    FILTER ( NonEnglishLanguages, [TitleCount] = MaxTitleCount )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    MAXX ( TopLanguage, Akas[language] ) // MAXX to pick alphabetically last in case of tie</t>
+  </si>
+  <si>
+    <t>TopLanguageCount =</t>
+  </si>
+  <si>
+    <t>TopRegion =</t>
+  </si>
+  <si>
+    <t>VAR RegionAvgRatings =</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            Akas[region]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "AvgRating",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                Akas[region] = EARLIER ( Akas[region] )</t>
+  </si>
+  <si>
+    <t>VAR RegionsWithRatings =</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    FILTER ( RegionAvgRatings, NOT ISBLANK ( [AvgRating] ) )</t>
+  </si>
+  <si>
+    <t>VAR MaxRegionAvgRating =</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    MAXX ( RegionsWithRatings, [AvgRating] )</t>
+  </si>
+  <si>
+    <t>VAR TopRegions =</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    FILTER ( RegionsWithRatings, [AvgRating] = MaxRegionAvgRating )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    MAXX ( TopRegions, Akas[region] ) // MAXX to pick alphabetically last in case of tie</t>
+  </si>
+  <si>
+    <t>TopRegionAvgRating =</t>
+  </si>
+  <si>
+    <r>
+      <t>11,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"The most improved series (by rating) over its run is {MostImprovedSeries}, rising by {RatingIncrease} stars.",</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Series</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>12,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"The episode with the highest rating is {TopEpisodeTitle} from {TopEpisodeSeries}, rated {TopEpisodeRating} stars.",</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Series</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>13,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"The title with the widest international appeal is {MostNonEnglishTitle}, available in {MostNonEnglishTitleCount} regions.",</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Global</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>14,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"The most popular language after English is {TopNonEnglishLanguage}, with {TopLanguageCount} titles.",</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Global</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>15,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"The region with the highest average rating is {TopRegion}, at {TopRegionAvgRating} stars.",</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Global</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -412,6 +861,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCCCCCC"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF569CD6"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFDCDCAA"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -433,7 +911,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -462,6 +940,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -749,15 +1236,15 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="21.88671875" customWidth="1"/>
-    <col min="4" max="4" width="20.44140625" customWidth="1"/>
-    <col min="5" max="5" width="24.88671875" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" customWidth="1"/>
+    <col min="5" max="5" width="24.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -771,7 +1258,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -788,7 +1275,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -805,7 +1292,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -822,7 +1309,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -839,7 +1326,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -856,7 +1343,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -885,22 +1372,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D6BA864-CBB4-4160-BD95-31DF7D87F754}">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="100.109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="17.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="100.140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="23.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>66</v>
       </c>
@@ -908,7 +1395,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>68</v>
       </c>
@@ -916,25 +1403,25 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
       <c r="B5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
       <c r="B7" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>69</v>
       </c>
@@ -942,37 +1429,37 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
       <c r="B9" s="5" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
       <c r="B10" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
       <c r="B11" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
       <c r="B12" s="5" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
       <c r="B13" s="5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>70</v>
       </c>
@@ -980,17 +1467,17 @@
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>71</v>
       </c>
@@ -998,17 +1485,17 @@
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>72</v>
       </c>
@@ -1016,17 +1503,17 @@
         <v>89</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B21" s="8" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B23" s="8" t="s">
         <v>92</v>
       </c>
@@ -1037,6 +1524,1257 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC947F1D-D34F-472E-BBDD-3D8895CC836A}">
+  <dimension ref="A2:K252"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="13" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="13" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="13" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="13" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="13" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="13" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="13" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="13" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="13" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="13" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="13" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="13" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="13" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="13" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>199</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE661913-47DE-462B-97A9-69AAA8761AE0}">
   <dimension ref="A1:A15"/>
   <sheetViews>
@@ -1044,60 +2782,60 @@
       <selection sqref="A1:A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="23.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>35</v>
       </c>
@@ -1107,7 +2845,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FC39E88-87EB-44D3-8E5F-917590D862B6}">
   <dimension ref="A1:A15"/>
   <sheetViews>
@@ -1115,60 +2853,60 @@
       <selection sqref="A1:A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="23.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>42</v>
       </c>
@@ -1178,7 +2916,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2166DEFC-3276-4EB2-B8A8-CE27FD7771EF}">
   <dimension ref="A1:A15"/>
   <sheetViews>
@@ -1186,60 +2924,60 @@
       <selection sqref="A1:A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="23.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>49</v>
       </c>
@@ -1249,7 +2987,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9507FB6C-DDB0-4BBB-BD5C-D3F374BC4F39}">
   <dimension ref="A1:A15"/>
   <sheetViews>
@@ -1257,60 +2995,60 @@
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="23.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>56</v>
       </c>
@@ -1320,7 +3058,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06491F42-C233-44FA-9E7E-DAB7244D5BB8}">
   <dimension ref="A1:A15"/>
   <sheetViews>
@@ -1328,60 +3066,60 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="23.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>62</v>
       </c>
